--- a/ngos.xlsx
+++ b/ngos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2553,6 +2553,1190 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>COAST GUARD EDUCATION SOCIETY</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>24-01-2018</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Coast Guard Kindergarten, Panipat Road, Haddo, Port Blair-744 102</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8900930842</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pcrana1733(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>INDIAN CHRISTIAN FELLOWSHIP</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>29-07-1994</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CIARI Road, Bhathu Basthi, Garacharma (P.O.), Port Blair South Andaman Port Blair PIN 744103</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>9933248156</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>icfpban(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>INSPIRATION DANCE STUDIO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16-11-2016</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>OPPOSITE TO AGENCY HOUSE WORKSHOP, GARACHARMA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>9474298707</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>raj[dot]croxzdaworld(at)gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>INTER DENOMINATIONAL GOSPEL MINISTRY</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>16-09-1992</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>I.D.G.M,Haddo ward No 1, opp lillypurmazid, Post Box No.668,Port Blair Andaman Pin - 744102.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>9434281429</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>idgmjohn(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>INVENT EDUCATIONAL AND CULTURAL KENDRA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>26-07-2000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Bathu BastiPort Blair</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>9474294194</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>inventportblair(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ISLAMIC WELFARE SOCIETY</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>19-02-1986</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>WIMBERLY GUNJ SOUTH ANDAMAN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>9932081771</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>iwsandaman(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ISLAND DEVELOPMENT ORGANIZATION</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01-10-2001</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Island Development Organization Santhayalay Building, 1st Floor, Lillypur, Haddo,Port Blair, South Andaman 744102</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>9476071192</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>idosouthandaman(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ISLANDERS SOCIAL MOVEMENT FOR AWARENESS And TRAINING</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>18-07-2005</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Marin Hill,Port Blair . South Andaman . Andaman and Nicobar Island.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>9474204874</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>subash_aditi(at)rediffmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Islands Christian Ministers Forum</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>17-11-2000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BrookshabadWard No. 22, Near Community Hall Port Blair744112, South Andaman</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7063984217</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>islandschristianministersforum(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ISLANDS INTEGRATED VOLUNTARY HEALTH MISSION</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>05-04-2017</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MB-22, Aberdeen Village,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>9531853424</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>iivhm1553(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Isles Scientific Learning and Educational Society</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>12-04-2006</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>C-70, Jetty Road, Junglighat, Port Blair, Andaman</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>9434262464</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>abdulgafoorpba(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Jhankar Dance Group</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>23-10-2017</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Chouldari, South Andaman,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>9083252494</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>devb2307(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>JHUMURR (SHASTRIYA - LOK) NRITYANGAN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>10-12-2012</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ABERDEEN VILLAGE, PORT BLAIR, SOUTH ANDAMAN,ANDAMAN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>7063932126</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>poddersonali(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JITTU ENTERTAINMENT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>06-03-2018</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>C/O S RAMA RAO, GENERAL MERCHANT, NEAR CHINTAMANI TEMPLE, DAIRY FARM, PORT BLAIR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>9531860043</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>bhaskarjittu143(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Kasheesh</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>25-08-2011</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>HOUSE OPP. OLD CENTRAL EXCISE OFFICE (GROUND FLOOR), R G T ROAD, PORT BLAIR , ANDAMAN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>9531809070</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>aasheesh_2007(at)rediffmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>KHALSA CHARITABLE EDUCATION SOCIETY</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>23-06-2016</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Gurudwara Line, Aberdeen Bazar, Port Blair</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>9734481819</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>khalsapublicschoolpb(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>KRG KALAI KAVERI SCHOOL</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>31-08-2005</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>KRG KALAI KAVERI SCHOOL NEAR MUTHUMARIAMMAN TEMBLE, BUNIYADABAD,HADDO (PO) PORTBLAIR</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>9933264193</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>annusa0425(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>LAKSH INSTITUTE OF SHIKSHA EDUCATIONAL SOCIETY</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>25-06-2015</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>BAMBOOFLAT ,PORTBLAIR ,SOUTH ANDAMAN PIN:744107</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>9474278084</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>saravanan[dot]laksh.p076(at)gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>LIFT INDIA FOUNDATION TRUST</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>29-11-2019</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lift India Foundation Trust Near Govt. Secondary School, Calicut Village, Port Blair, South Andaman PIN : 744105</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>9474268076</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>liftindia2020(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LIVING ON THE EDGE - LOTE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>04-10-2012</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>OOM BUILDING MAIN ROAD WIMBELRYGUNJ BAZAAR WIMBERLYGUNJ FERRARGUNJ TEHSIL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>9474248383</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>PRESIDENT[dot]LOTE(at)GMAIL.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>LOVE CHILDREN'S HOME</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>20-07-2015</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LOVE CHILDRENS HOME INDRA NAGAR, MANGLUTAN PORT BLAIR, SOUTH ANDAMAN-744105 ANDAMAN AND NICOBAR ISLANDS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>9933250397</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pastortrwilson(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>M J Music Academy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20-11-2015</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Opp. DBRAIT College Loknatha Colony Dollygunj</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>9474254075</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>MJRIZWAN14(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MAHILA MONDAL OGRABRAJ</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>28-03-1978</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Post Ograbraj</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>9933270871</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>mondalmahila(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Malati Krishna</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>07-08-2012</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ram Krishna Pur, Little Andaman South Andaman</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>9474278570</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>kripa_mondal(at)rediffmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MANAV KALYAN SEVA SANGH</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>04-12-2020</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LOKNATH COLONY DOLLYGUNJ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>9474256622</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>manavkalyansevasangh[dot]pb(at)gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>METTURU GRAMA ABHIVRUDDHI SANGAM</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>28-03-2017</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>HADDOWARD NO 2 PORTBLAIR</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>9474273242</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>eshopforguest(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Mukta Dhara</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>16-06-1997</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Subhash Gram, Diglipur</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>9679506182</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ptalukdar26(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Music Stars</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>27-02-2013</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Junglighat, Beside Arafa Electronics,Port Blair, South Andaman- 744103</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>9933226347</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Pmurugaiah80(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NAACH ACADEMY OF PERFORMING ARTS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>21-09-2011</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>House No.3 Friends Cooperative Society Lambaline, Port Blair Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>9933254264</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>samhita[dot]acharya(at)gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Naveen Cultural Group</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>15-02-2012</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Gupta Para Andamans, Andaman</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>9679562327</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>naveen[dot]cultural.group(at)gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Navodhaya Foundation</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>26-03-2021</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No1, Phongy Chaung Adjacent to Phongy Temple</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>9036789272</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>navodhayafoundationandaman(at)hotmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Netaji Educational Society</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>16-07-2003</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>New Pahargaon Port Blair South Andaman Andaman And Nicobar Islands 744105</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>9474217121</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>netajikendrav(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Netaji Nagar Sanskritik Sangstha</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>13-06-2003</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Vill. Netaji Nagar, P.O. Garacharma, South Andaman, Andaman</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>9734484455</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>spotlightportblair(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>NON TEACHING STAFF ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>30-01-2017</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>WARD NO 22 PORT BLAIR SOUTH ANDAMAN, ANDAMAN AND NICOBAR ISLANDS744105</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>9933274807</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>svigneshwaran456(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>NRITYALPANA DANCE ACADEMY</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>10-07-2014</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>759/2, PREMNAGAR, ANDAMANS, ANDAMAN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>9434279108</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>nrityalpanadanceacademy(at)gmail[dot]com</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>pankh</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>08-11-2018</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>88, JN ROAD HADDO</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>9933205777</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>pankh[dot]andaman(at)gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PARIVARTAN SAMAJIK PRATISHTHAN</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>23-02-2012</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>(GHUMRA)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>8308418686</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>parivartan(at)yahoo[dot]com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
